--- a/output_data/charts/capacity-GroveCity-1600000US3932592.xlsx
+++ b/output_data/charts/capacity-GroveCity-1600000US3932592.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -516,7 +516,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8840</c:v>
+                  <c:v>8.84</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -707,7 +707,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3624000</c:v>
+                  <c:v>3624</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -859,13 +859,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45000</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1100</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -874,34 +874,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2900</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10800</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15200</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50900</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87400</c:v>
+                  <c:v>87.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>209370</c:v>
+                  <c:v>209.37</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>220660</c:v>
+                  <c:v>220.66</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>440135</c:v>
+                  <c:v>440.135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>381109</c:v>
+                  <c:v>381.109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>400</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>45000</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1100</v>
+        <v>1.1</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>2900</v>
+        <v>2.9</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>10800</v>
+        <v>10.8</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>15200</v>
+        <v>15.2</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>50900</v>
+        <v>50.9</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>87400</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>209370</v>
+        <v>209.37</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>220660</v>
+        <v>220.66</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>8840</v>
+        <v>8.84</v>
       </c>
       <c r="D25" s="2">
-        <v>3624000</v>
+        <v>3624</v>
       </c>
       <c r="E25" s="2">
-        <v>440135</v>
+        <v>440.135</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>381109</v>
+        <v>381.109</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-GroveCity-1600000US3932592.xlsx
+++ b/output_data/charts/capacity-GroveCity-1600000US3932592.xlsx
@@ -901,7 +901,7 @@
                   <c:v>440.135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>381.109</c:v>
+                  <c:v>524.609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>381.109</v>
+        <v>524.609</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
